--- a/project/data/audio src/vocabulary.xlsx
+++ b/project/data/audio src/vocabulary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEAF997-1B8A-48E5-B811-8F377D8B2DFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="960" yWindow="1240" windowWidth="6480" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +65,6 @@
     <t>blast</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>shot</t>
   </si>
   <si>
@@ -178,9 +176,6 @@
     <t>mengerikan</t>
   </si>
   <si>
-    <t>laurbiasa</t>
-  </si>
-  <si>
     <t>kiintymys</t>
   </si>
   <si>
@@ -344,12 +339,18 @@
   </si>
   <si>
     <t>adjective</t>
+  </si>
+  <si>
+    <t>luarbiasa</t>
+  </si>
+  <si>
+    <t>beat/fight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,6 +475,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -509,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,25 +719,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,83 +772,83 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -822,244 +857,244 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
         <v>105</v>
       </c>
-      <c r="M6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1068,39 +1103,39 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1109,39 +1144,39 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1150,80 +1185,80 @@
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1232,80 +1267,80 @@
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1314,89 +1349,89 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/project/data/audio src/vocabulary.xlsx
+++ b/project/data/audio src/vocabulary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEAF997-1B8A-48E5-B811-8F377D8B2DFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A6A2C-8309-4C7A-8CB5-C304299E225C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1240" windowWidth="6480" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="1250" windowWidth="12620" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,12 +92,6 @@
     <t>amor</t>
   </si>
   <si>
-    <t>ensurt</t>
-  </si>
-  <si>
-    <t>englar</t>
-  </si>
-  <si>
     <t>pollastre</t>
   </si>
   <si>
@@ -345,6 +339,12 @@
   </si>
   <si>
     <t>beat/fight</t>
+  </si>
+  <si>
+    <t>insurt</t>
+  </si>
+  <si>
+    <t>senglar</t>
   </si>
 </sst>
 </file>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -789,34 +789,34 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -830,25 +830,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -871,34 +871,34 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -906,40 +906,40 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
         <v>103</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -947,40 +947,40 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
         <v>103</v>
-      </c>
-      <c r="M6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -988,40 +988,40 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1029,40 +1029,40 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1070,31 +1070,31 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1111,31 +1111,31 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1144,39 +1144,39 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1193,40 +1193,40 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1234,31 +1234,31 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1275,40 +1275,40 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1316,31 +1316,31 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1357,40 +1357,40 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1398,40 +1398,40 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/project/data/audio src/vocabulary.xlsx
+++ b/project/data/audio src/vocabulary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A6A2C-8309-4C7A-8CB5-C304299E225C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760127C7-A5E7-4025-A187-CF3E2DC923CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1250" windowWidth="12620" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16210" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,13 +338,13 @@
     <t>luarbiasa</t>
   </si>
   <si>
-    <t>beat/fight</t>
-  </si>
-  <si>
     <t>insurt</t>
   </si>
   <si>
     <t>senglar</t>
+  </si>
+  <si>
+    <t>beat</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>

--- a/project/data/audio src/vocabulary.xlsx
+++ b/project/data/audio src/vocabulary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760127C7-A5E7-4025-A187-CF3E2DC923CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF7531-A51A-47D2-83D9-D29004717450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16210" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="3390" windowWidth="16215" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,6 @@
     <t>kulma</t>
   </si>
   <si>
-    <t>aanekos</t>
-  </si>
-  <si>
-    <t>pelotava</t>
-  </si>
-  <si>
     <t>mahtava</t>
   </si>
   <si>
@@ -345,6 +339,12 @@
   </si>
   <si>
     <t>beat</t>
+  </si>
+  <si>
+    <t>pelottava</t>
+  </si>
+  <si>
+    <t>aanekas</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -801,22 +801,22 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -842,13 +842,13 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -883,22 +883,22 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -924,22 +924,22 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -947,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -965,22 +965,22 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
         <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1006,22 +1006,22 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1047,22 +1047,22 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1088,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1129,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1144,12 +1144,12 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1170,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1211,22 +1211,22 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1252,13 +1252,13 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1328,19 +1328,19 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1369,28 +1369,28 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1404,34 +1404,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
